--- a/biology/Zoologie/Buse_cul-blanc/Buse_cul-blanc.xlsx
+++ b/biology/Zoologie/Buse_cul-blanc/Buse_cul-blanc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Parabuteo leucorrhous
 La Buse cul-blanc (Parabuteo leucorrhous, anciennement Buteo leucorrhous) est une espèce d'oiseaux de la famille des Accipitridae.
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit dans les forêts andines humides du Venezuela au nord-ouest de l'Argentine et dans la forêt atlantique.
 </t>
@@ -543,10 +557,12 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Une étude phylogénique de Riesing et al. (2003) avait déjà montré que cette espèce n'était pas une parente proche des espèces traditionnelles du genre Buteo. Riesing et al. proposaient de la placer dans un genre à part, Percnohierax.
-En 2009, les travaux phylogéniques de Raposo do Amaral et al. montrent que cette espèce est un taxon frère de la Buse de Harris (Parabuteo unicinctus), mais qu'elle est éloignée des autres espèces du genre Buteo. Le Comité de classification sud-américain de l'American Ornithological Society[1] choisit de placer ces deux espèces dans un genre séparé nommé Parabuteo. Le Congrès ornithologique international suit cette proposition dans sa classification de référence (version 3.3, 2013).
+En 2009, les travaux phylogéniques de Raposo do Amaral et al. montrent que cette espèce est un taxon frère de la Buse de Harris (Parabuteo unicinctus), mais qu'elle est éloignée des autres espèces du genre Buteo. Le Comité de classification sud-américain de l'American Ornithological Society choisit de placer ces deux espèces dans un genre séparé nommé Parabuteo. Le Congrès ornithologique international suit cette proposition dans sa classification de référence (version 3.3, 2013).
 </t>
         </is>
       </c>
